--- a/data/trans_dic/iP18_E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>95,22; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,14; 100,0</t>
+          <t>95,27; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,08; 100,0</t>
+          <t>92,96; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,96; 100,0</t>
+          <t>93,86; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100,0</t>
+          <t>95,41; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>92,37; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,51; 100,0</t>
+          <t>58,67; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,43; 100,0</t>
+          <t>96,66; 99,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,19; 100,0</t>
+          <t>97,47; 100,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>94,7; 99,52</t>
+          <t>94,37; 99,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,91; 100,0</t>
+          <t>86,6; 100,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,45; 96,76</t>
+          <t>93,28; 96,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,44; 97,43</t>
+          <t>94,26; 97,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,06; 97,89</t>
+          <t>95,04; 97,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92,94; 98,85</t>
+          <t>93,35; 98,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,95</t>
+          <t>93,36; 96,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,92; 97,11</t>
+          <t>94,06; 97,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,32; 97,37</t>
+          <t>94,12; 97,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,24; 92,72</t>
+          <t>75,04; 93,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,47</t>
+          <t>93,96; 96,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,8; 96,88</t>
+          <t>94,77; 96,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,17; 97,19</t>
+          <t>95,05; 97,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,72; 95,69</t>
+          <t>86,66; 95,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,41; 87,76</t>
+          <t>77,85; 87,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,96; 92,39</t>
+          <t>84,08; 92,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,09; 89,99</t>
+          <t>81,67; 90,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,85; 92,56</t>
+          <t>69,24; 92,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,13; 90,8</t>
+          <t>81,88; 91,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,25; 92,93</t>
+          <t>84,48; 92,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,28; 91,21</t>
+          <t>82,2; 91,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,22; 88,31</t>
+          <t>64,44; 88,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,87; 88,09</t>
+          <t>81,42; 88,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,54; 91,26</t>
+          <t>85,55; 91,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>83,5; 89,59</t>
+          <t>83,53; 89,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,05; 88,32</t>
+          <t>70,81; 87,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,68</t>
+          <t>91,23; 94,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,12; 95,83</t>
+          <t>93,16; 96,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,42; 95,45</t>
+          <t>92,39; 95,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,71; 96,79</t>
+          <t>89,74; 96,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,7; 95,01</t>
+          <t>91,83; 94,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,16; 95,98</t>
+          <t>93,17; 96,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,37</t>
+          <t>92,18; 95,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,35; 89,92</t>
+          <t>74,9; 90,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,01; 94,31</t>
+          <t>92,12; 94,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,62</t>
+          <t>93,66; 95,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,1</t>
+          <t>92,88; 95,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,42; 92,64</t>
+          <t>85,02; 92,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>99,22%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97,59%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>94,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>99,05%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98,07%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>95,06; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>96,05; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,07; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,84; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,26; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,15; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,16; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>96,34; 99,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>97,22; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,55; 99,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,54; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>91,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 100,0</t>
+          <t>93,66; 96,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,27; 100,0</t>
+          <t>93,82; 97,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,96; 100,0</t>
+          <t>94,16; 97,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>70,09; 92,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,86; 100,0</t>
+          <t>93,44; 96,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,41; 100,0</t>
+          <t>94,41; 97,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,37; 100,0</t>
+          <t>94,96; 97,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,67; 100,0</t>
+          <t>92,38; 98,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,69</t>
+          <t>93,97; 96,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,47; 100,0</t>
+          <t>94,79; 96,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>94,37; 99,45</t>
+          <t>95,27; 97,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,6; 100,0</t>
+          <t>85,66; 95,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>80,88%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,28; 96,72</t>
+          <t>82,15; 91,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,26; 97,39</t>
+          <t>84,55; 92,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,04; 97,86</t>
+          <t>82,33; 91,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,35; 98,93</t>
+          <t>63,4; 88,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,36; 96,98</t>
+          <t>77,41; 87,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,06; 97,29</t>
+          <t>83,8; 92,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,12; 97,18</t>
+          <t>81,58; 89,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,04; 93,09</t>
+          <t>66,41; 92,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,96; 96,42</t>
+          <t>81,59; 88,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,77; 96,96</t>
+          <t>85,58; 91,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,05; 97,19</t>
+          <t>83,26; 89,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,66; 95,27</t>
+          <t>70,77; 88,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,83%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>89,53%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,85; 87,75</t>
+          <t>91,8; 95,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,08; 92,19</t>
+          <t>93,22; 96,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,67; 90,03</t>
+          <t>92,45; 95,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,24; 92,35</t>
+          <t>73,69; 89,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,88; 91,07</t>
+          <t>91,28; 94,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,48; 92,7</t>
+          <t>93,09; 95,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,2; 91,13</t>
+          <t>92,44; 95,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,44; 88,94</t>
+          <t>89,42; 96,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,42; 88,31</t>
+          <t>92,06; 94,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,55; 91,57</t>
+          <t>93,62; 95,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>83,53; 89,71</t>
+          <t>92,95; 95,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,81; 87,93</t>
+          <t>84,66; 92,79</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>93,04%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>94,66%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>94,11%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>84,67%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>93,3%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>94,69%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>89,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>91,23; 94,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>93,16; 96,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>92,39; 95,41</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>89,74; 96,79</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>91,83; 94,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>93,17; 96,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>92,18; 95,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>74,9; 90,14</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>92,12; 94,37</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>93,66; 95,61</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>92,88; 95,0</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>85,02; 92,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
